--- a/data/propuestas_artisticas.xlsx
+++ b/data/propuestas_artisticas.xlsx
@@ -7777,8 +7777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF314"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="AB317" sqref="AB317"/>
+    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="75" workbookViewId="0">
+      <selection activeCell="AD241" sqref="AD241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/propuestas_artisticas.xlsx
+++ b/data/propuestas_artisticas.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7744" uniqueCount="2424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7744" uniqueCount="2425">
   <si>
     <t>Edad</t>
   </si>
@@ -7299,6 +7299,9 @@
   </si>
   <si>
     <t>DANZAS_REL</t>
+  </si>
+  <si>
+    <t>EXPRESIONES_I</t>
   </si>
 </sst>
 </file>
@@ -7781,11 +7784,13 @@
   <dimension ref="A1:AF314"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="AF7" sqref="AF7"/>
+      <selection activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="5" max="5" width="65.54296875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.6328125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="36.7265625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -8963,7 +8968,7 @@
         <v>33</v>
       </c>
       <c r="AF12" s="14" t="s">
-        <v>2421</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="15" x14ac:dyDescent="0.35">
@@ -9551,7 +9556,7 @@
         <v>33</v>
       </c>
       <c r="AF18" s="14" t="s">
-        <v>2421</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="15" x14ac:dyDescent="0.35">
@@ -9649,7 +9654,7 @@
         <v>33</v>
       </c>
       <c r="AF19" s="14" t="s">
-        <v>2421</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="15" x14ac:dyDescent="0.35">
@@ -9747,7 +9752,7 @@
         <v>33</v>
       </c>
       <c r="AF20" s="14" t="s">
-        <v>2421</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="15" x14ac:dyDescent="0.35">
@@ -11021,7 +11026,7 @@
         <v>33</v>
       </c>
       <c r="AF33" s="14" t="s">
-        <v>2421</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="15" x14ac:dyDescent="0.35">
@@ -12099,7 +12104,7 @@
         <v>33</v>
       </c>
       <c r="AF44" s="14" t="s">
-        <v>2421</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="45" spans="1:32" ht="15" x14ac:dyDescent="0.35">
@@ -12687,7 +12692,7 @@
         <v>33</v>
       </c>
       <c r="AF50" s="14" t="s">
-        <v>2421</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="51" spans="1:32" ht="15" x14ac:dyDescent="0.35">
@@ -12785,7 +12790,7 @@
         <v>33</v>
       </c>
       <c r="AF51" s="14" t="s">
-        <v>2421</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="52" spans="1:32" ht="15" x14ac:dyDescent="0.35">
@@ -12981,7 +12986,7 @@
         <v>33</v>
       </c>
       <c r="AF53" s="14" t="s">
-        <v>2421</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="54" spans="1:32" ht="15" x14ac:dyDescent="0.35">
@@ -13961,7 +13966,7 @@
         <v>33</v>
       </c>
       <c r="AF63" s="14" t="s">
-        <v>2421</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="64" spans="1:32" ht="15" x14ac:dyDescent="0.35">
@@ -14255,7 +14260,7 @@
         <v>33</v>
       </c>
       <c r="AF66" s="14" t="s">
-        <v>2421</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="67" spans="1:32" ht="15" x14ac:dyDescent="0.35">
@@ -14745,7 +14750,7 @@
         <v>33</v>
       </c>
       <c r="AF71" s="14" t="s">
-        <v>2421</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="72" spans="1:32" ht="15" x14ac:dyDescent="0.35">

--- a/data/propuestas_artisticas.xlsx
+++ b/data/propuestas_artisticas.xlsx
@@ -7810,8 +7810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A293" zoomScale="72" workbookViewId="0">
-      <selection activeCell="A315" sqref="A315"/>
+    <sheetView tabSelected="1" topLeftCell="W232" zoomScale="72" workbookViewId="0">
+      <selection activeCell="AF240" sqref="AF240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -31241,7 +31241,7 @@
         <v>33</v>
       </c>
       <c r="AF239" s="14" t="s">
-        <v>2418</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="240" spans="1:32" ht="15" x14ac:dyDescent="0.35">

--- a/data/propuestas_artisticas.xlsx
+++ b/data/propuestas_artisticas.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7769" uniqueCount="2433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7780" uniqueCount="2436">
   <si>
     <t>Edad</t>
   </si>
@@ -7326,6 +7326,15 @@
   </si>
   <si>
     <t xml:space="preserve">CRA. 46 #48 </t>
+  </si>
+  <si>
+    <t>P315</t>
+  </si>
+  <si>
+    <t>TRIETNIA CON LA DANZA DEL CIEN PIES</t>
+  </si>
+  <si>
+    <t>TRADICONAL</t>
   </si>
 </sst>
 </file>
@@ -7808,10 +7817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF315"/>
+  <dimension ref="A1:AF316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W232" zoomScale="72" workbookViewId="0">
-      <selection activeCell="AF240" sqref="AF240"/>
+    <sheetView tabSelected="1" topLeftCell="A294" zoomScale="72" workbookViewId="0">
+      <selection activeCell="AG316" sqref="AG316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7819,6 +7828,7 @@
     <col min="5" max="5" width="65.54296875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="21.6328125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="36.7265625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -38688,6 +38698,50 @@
       </c>
       <c r="AF315" s="14" t="s">
         <v>454</v>
+      </c>
+    </row>
+    <row r="316" spans="1:32" ht="15" x14ac:dyDescent="0.35">
+      <c r="A316" s="14">
+        <v>2026</v>
+      </c>
+      <c r="B316" s="6" t="s">
+        <v>2433</v>
+      </c>
+      <c r="C316" s="6">
+        <v>2026</v>
+      </c>
+      <c r="D316" s="6">
+        <v>2026</v>
+      </c>
+      <c r="E316" s="14" t="s">
+        <v>2434</v>
+      </c>
+      <c r="X316" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y316" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z316" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA316" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB316" s="14" t="s">
+        <v>1659</v>
+      </c>
+      <c r="AC316" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD316" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE316" s="14" t="s">
+        <v>2435</v>
+      </c>
+      <c r="AF316" s="14" t="s">
+        <v>2424</v>
       </c>
     </row>
   </sheetData>
@@ -38696,7 +38750,7 @@
       <sortCondition ref="Z1:Z314"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="B1:B315">
+  <conditionalFormatting sqref="B1:B316">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/propuestas_artisticas.xlsx
+++ b/data/propuestas_artisticas.xlsx
@@ -7858,8 +7858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" zoomScale="72" workbookViewId="0">
-      <selection activeCell="AE323" sqref="AE323"/>
+    <sheetView tabSelected="1" topLeftCell="Q218" zoomScale="72" workbookViewId="0">
+      <selection activeCell="AE239" sqref="AE239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -31272,13 +31272,13 @@
         <v>28</v>
       </c>
       <c r="Z239" s="6" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="AA239" s="6" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="AB239" s="6" t="s">
-        <v>127</v>
+        <v>357</v>
       </c>
       <c r="AC239" s="6" t="s">
         <v>31</v>

--- a/data/propuestas_artisticas.xlsx
+++ b/data/propuestas_artisticas.xlsx
@@ -7346,7 +7346,7 @@
     <t>P317</t>
   </si>
   <si>
-    <t>SEFORE</t>
+    <t>MAPALÉ JUVENIL SEFORE</t>
   </si>
 </sst>
 </file>
@@ -7865,7 +7865,7 @@
   <dimension ref="A1:AF318"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A303" zoomScale="72" workbookViewId="0">
-      <selection activeCell="E326" sqref="E326"/>
+      <selection activeCell="E318" sqref="E318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
